--- a/notebooks/SETD2/input/SETD2_MRD70_individuals.xlsx
+++ b/notebooks/SETD2/input/SETD2_MRD70_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SETD2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3A2844-19C0-2B49-A785-2E05CBF4CEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74357F82-80C7-0F46-84FA-677BE0B71EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18040" yWindow="8420" windowWidth="27040" windowHeight="12700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,9 +187,6 @@
     <t>Premature birth</t>
   </si>
   <si>
-    <t>Caesarian section</t>
-  </si>
-  <si>
     <t>Large for gestational age</t>
   </si>
   <si>
@@ -605,6 +602,9 @@
   </si>
   <si>
     <t>P7Y8M</t>
+  </si>
+  <si>
+    <t>Caesarean section</t>
   </si>
 </sst>
 </file>
@@ -986,7 +986,7 @@
   <dimension ref="A1:CM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AZ1" sqref="AZ1:BA1048576"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1047,22 +1047,22 @@
         <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>17</v>
@@ -1071,7 +1071,7 @@
         <v>19</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>23</v>
@@ -1080,181 +1080,181 @@
         <v>25</v>
       </c>
       <c r="AD1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="AK1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="AL1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BL1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BY1" s="1" t="s">
+      <c r="BZ1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BZ1" s="1" t="s">
+      <c r="CA1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="CD1" s="1" t="s">
+      <c r="CE1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="CE1" s="1" t="s">
+      <c r="CF1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CG1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CH1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="CK1" s="1" t="s">
         <v>24</v>
@@ -1319,25 +1319,25 @@
         <v>37</v>
       </c>
       <c r="R2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S2" t="s">
         <v>62</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>63</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>64</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>65</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>66</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>67</v>
-      </c>
-      <c r="X2" t="s">
-        <v>68</v>
       </c>
       <c r="Y2" t="s">
         <v>38</v>
@@ -1346,7 +1346,7 @@
         <v>40</v>
       </c>
       <c r="AA2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB2" t="s">
         <v>44</v>
@@ -1355,181 +1355,181 @@
         <v>46</v>
       </c>
       <c r="AD2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE2" t="s">
         <v>129</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>130</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>131</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>132</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>133</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>134</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>135</v>
       </c>
       <c r="AK2" t="s">
         <v>43</v>
       </c>
       <c r="AL2" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM2" t="s">
         <v>136</v>
       </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
         <v>137</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AO2" t="s">
         <v>138</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AP2" t="s">
         <v>139</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AQ2" t="s">
         <v>140</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AR2" t="s">
         <v>141</v>
       </c>
-      <c r="AR2" t="s">
+      <c r="AS2" t="s">
         <v>142</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AT2" t="s">
         <v>143</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>144</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AV2" t="s">
         <v>145</v>
       </c>
-      <c r="AV2" t="s">
+      <c r="AW2" t="s">
         <v>146</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AX2" t="s">
         <v>147</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AY2" t="s">
         <v>148</v>
       </c>
-      <c r="AY2" t="s">
+      <c r="AZ2" t="s">
         <v>149</v>
       </c>
-      <c r="AZ2" t="s">
+      <c r="BA2" t="s">
         <v>150</v>
       </c>
-      <c r="BA2" t="s">
+      <c r="BB2" t="s">
         <v>151</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>152</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>153</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>154</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>155</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>156</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>157</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>158</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>159</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>160</v>
       </c>
       <c r="BK2" t="s">
         <v>41</v>
       </c>
       <c r="BL2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BM2" t="s">
         <v>161</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>162</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>163</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>164</v>
       </c>
-      <c r="BP2" t="s">
+      <c r="BQ2" t="s">
         <v>165</v>
       </c>
-      <c r="BQ2" t="s">
+      <c r="BR2" t="s">
         <v>166</v>
       </c>
-      <c r="BR2" t="s">
+      <c r="BS2" t="s">
         <v>167</v>
       </c>
-      <c r="BS2" t="s">
+      <c r="BT2" t="s">
         <v>168</v>
       </c>
-      <c r="BT2" t="s">
+      <c r="BU2" t="s">
         <v>169</v>
       </c>
-      <c r="BU2" t="s">
+      <c r="BV2" t="s">
         <v>170</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>171</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>172</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>173</v>
       </c>
-      <c r="BY2" t="s">
+      <c r="BZ2" t="s">
         <v>174</v>
       </c>
-      <c r="BZ2" t="s">
+      <c r="CA2" t="s">
         <v>175</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>176</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>177</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>178</v>
       </c>
-      <c r="CD2" t="s">
+      <c r="CE2" t="s">
         <v>179</v>
       </c>
-      <c r="CE2" t="s">
+      <c r="CF2" t="s">
         <v>180</v>
       </c>
-      <c r="CF2" t="s">
+      <c r="CG2" t="s">
         <v>181</v>
       </c>
-      <c r="CG2" t="s">
+      <c r="CH2" t="s">
         <v>182</v>
       </c>
-      <c r="CH2" t="s">
+      <c r="CI2" t="s">
         <v>183</v>
       </c>
-      <c r="CI2" t="s">
+      <c r="CJ2" t="s">
         <v>184</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>185</v>
       </c>
       <c r="CK2" t="s">
         <v>45</v>
@@ -1576,169 +1576,169 @@
         <v>53</v>
       </c>
       <c r="M3" t="s">
+        <v>185</v>
+      </c>
+      <c r="N3" t="s">
         <v>186</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>187</v>
       </c>
-      <c r="O3" t="s">
-        <v>188</v>
-      </c>
       <c r="P3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q3" t="s">
         <v>37</v>
       </c>
       <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y3" t="s">
         <v>70</v>
       </c>
-      <c r="S3" t="s">
+      <c r="Z3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T3" t="s">
+      <c r="AC3" t="s">
         <v>70</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="AI3" t="s">
         <v>70</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="AK3" t="s">
         <v>70</v>
       </c>
-      <c r="W3" t="s">
+      <c r="AW3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY3" t="s">
         <v>70</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="AZ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC3" t="s">
         <v>70</v>
       </c>
-      <c r="Y3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="BD3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CE3" t="s">
         <v>70</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="CF3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>37</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>69</v>
+      </c>
+      <c r="CI3" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AW3" t="s">
+      <c r="CJ3" t="s">
         <v>70</v>
       </c>
-      <c r="AY3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AZ3" t="s">
+      <c r="CK3" t="s">
         <v>70</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>37</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>71</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>37</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>70</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>71</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>71</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>71</v>
       </c>
       <c r="CL3" t="s">
         <v>37</v>
@@ -1779,187 +1779,187 @@
         <v>37</v>
       </c>
       <c r="M4" t="s">
+        <v>188</v>
+      </c>
+      <c r="N4" t="s">
         <v>189</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" t="s">
         <v>190</v>
       </c>
-      <c r="O4" t="s">
-        <v>188</v>
-      </c>
-      <c r="P4" t="s">
-        <v>191</v>
-      </c>
       <c r="Q4" t="s">
         <v>37</v>
       </c>
       <c r="R4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" t="s">
+        <v>69</v>
+      </c>
+      <c r="T4" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z4" t="s">
         <v>70</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AA4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AT4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH4" t="s">
         <v>70</v>
       </c>
-      <c r="U4" s="2" t="s">
+      <c r="BI4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK4" t="s">
         <v>70</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="BL4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>69</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM4" t="s">
         <v>70</v>
-      </c>
-      <c r="W4" t="s">
-        <v>70</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>70</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>37</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>70</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>37</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>37</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:91" ht="16" x14ac:dyDescent="0.2">
@@ -1994,163 +1994,163 @@
         <v>37</v>
       </c>
       <c r="M5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" t="s">
         <v>193</v>
       </c>
-      <c r="N5" t="s">
-        <v>194</v>
-      </c>
       <c r="O5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q5" t="s">
         <v>37</v>
       </c>
       <c r="R5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S5" t="s">
+        <v>69</v>
+      </c>
+      <c r="T5" t="s">
+        <v>69</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>69</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y5" t="s">
         <v>70</v>
       </c>
-      <c r="S5" t="s">
+      <c r="Z5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK5" t="s">
         <v>70</v>
       </c>
-      <c r="T5" t="s">
+      <c r="BL5" t="s">
+        <v>69</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>37</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>37</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>69</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>37</v>
+      </c>
+      <c r="CL5" t="s">
         <v>70</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="W5" t="s">
-        <v>70</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>37</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BC5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BE5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>37</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>37</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>70</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>37</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>71</v>
       </c>
       <c r="CM5" t="s">
         <v>37</v>
